--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="162">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Tracks the patient’s treatment regimen, including details of medication, dosages, and any updates to the treatment plan.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -735,39 +738,41 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -775,26 +780,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -852,112 +857,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -973,10 +978,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -988,13 +993,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1045,13 +1050,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
@@ -1062,10 +1067,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1073,10 +1078,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1088,7 +1093,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1141,13 +1146,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1158,10 +1163,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1169,10 +1174,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1184,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1217,11 +1222,11 @@
         <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>20</v>
@@ -1239,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1256,10 +1261,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1267,10 +1272,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1282,13 +1287,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1339,13 +1344,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1356,10 +1361,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1367,10 +1372,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1382,13 +1387,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1439,13 +1444,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1456,10 +1461,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1467,10 +1472,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1482,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1539,13 +1544,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1556,10 +1561,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1567,10 +1572,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1582,13 +1587,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1639,13 +1644,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1656,10 +1661,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1667,10 +1672,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1682,13 +1687,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1739,13 +1744,13 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1756,10 +1761,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1767,10 +1772,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1782,13 +1787,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1839,13 +1844,13 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -1856,10 +1861,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1867,10 +1872,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1882,13 +1887,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1939,13 +1944,13 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -1956,10 +1961,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1967,10 +1972,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -1982,13 +1987,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2039,13 +2044,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2056,10 +2061,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2067,10 +2072,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2082,13 +2087,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2139,13 +2144,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2156,10 +2161,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2167,10 +2172,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2182,13 +2187,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2239,13 +2244,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2256,10 +2261,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2267,10 +2272,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2282,13 +2287,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2339,13 +2344,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2356,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2367,10 +2372,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2382,13 +2387,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2439,13 +2444,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2456,10 +2461,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2467,10 +2472,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2482,13 +2487,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2539,13 +2544,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -2556,10 +2561,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2567,10 +2572,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2582,13 +2587,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2639,13 +2644,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -2656,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2667,10 +2672,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2682,13 +2687,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2739,13 +2744,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -2756,10 +2761,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2767,10 +2772,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -2782,13 +2787,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2839,13 +2844,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -2856,10 +2861,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2867,10 +2872,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -2882,13 +2887,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2939,13 +2944,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -2956,10 +2961,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2967,10 +2972,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -2982,13 +2987,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3039,13 +3044,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -3056,10 +3061,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3067,10 +3072,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3082,13 +3087,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3139,13 +3144,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -3156,10 +3161,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3167,10 +3172,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3182,13 +3187,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3239,13 +3244,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -3256,10 +3261,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3267,10 +3272,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3282,13 +3287,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3339,13 +3344,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -3356,10 +3361,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3367,10 +3372,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3382,13 +3387,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3439,13 +3444,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -3456,10 +3461,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3467,10 +3472,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -3482,13 +3487,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3539,13 +3544,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -3556,10 +3561,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3567,10 +3572,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -3582,13 +3587,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3639,13 +3644,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -3656,10 +3661,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3667,10 +3672,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -3682,13 +3687,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3739,13 +3744,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -3756,10 +3761,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3767,10 +3772,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -3782,13 +3787,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3839,13 +3844,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -3856,10 +3861,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3867,10 +3872,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -3882,13 +3887,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3939,13 +3944,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -3956,10 +3961,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -3967,10 +3972,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -3982,13 +3987,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4039,13 +4044,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -4056,10 +4061,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4067,10 +4072,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -4082,13 +4087,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4139,13 +4144,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -4156,10 +4161,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4167,10 +4172,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -4182,13 +4187,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4239,13 +4244,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -4256,10 +4261,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4267,10 +4272,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -4282,13 +4287,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4339,13 +4344,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -4356,10 +4361,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4367,10 +4372,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -4382,13 +4387,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4415,11 +4420,11 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -4437,13 +4442,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -4454,10 +4459,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4465,10 +4470,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -4480,13 +4485,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4537,13 +4542,13 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -4554,10 +4559,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4565,10 +4570,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -4580,13 +4585,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4637,13 +4642,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -4654,10 +4659,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4665,10 +4670,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -4680,13 +4685,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4737,13 +4742,13 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -4754,10 +4759,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4765,10 +4770,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -4780,13 +4785,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4837,13 +4842,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -4854,10 +4859,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -4865,10 +4870,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -4880,13 +4885,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -4937,13 +4942,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---treatment-category-vs</t>
+    <t>http://example.org/ValueSet/TBCSTreatmentCategoryVS</t>
   </si>
   <si>
     <t>TBTreatment.levofloxacinLfx</t>
@@ -470,7 +470,7 @@
     <t>TB CS - Manually assigned resistance classification</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-cs---resistance-classification-vs</t>
+    <t>http://example.org/ValueSet/TBCSResistanceClassificationVS</t>
   </si>
   <si>
     <t>TBTreatment.treatmentInitiationDelayDays</t>
@@ -843,7 +843,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.78515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.9609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Tracks the patient’s treatment regimen, including details of medication, dosages, and any updates to the treatment plan.</t>
+    <t>Tracks the patient's treatment regimen, including details of medication, dosages, and any updates to the treatment plan.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -254,6 +254,9 @@
 </t>
   </si>
   <si>
+    <t>Execution date</t>
+  </si>
+  <si>
     <t>TBTreatment.treatmentRegimen</t>
   </si>
   <si>
@@ -446,7 +449,7 @@
     <t>TB CS - Treatment second-line - Pa</t>
   </si>
   <si>
-    <t>TBTreatment.SecondLinePyrazinamidePza</t>
+    <t>TBTreatment.secondLinePyrazinamidePza</t>
   </si>
   <si>
     <t>TB CS - Treatment second-line - Pza</t>
@@ -1095,8 +1098,12 @@
       <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1163,10 +1170,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1189,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1222,11 +1229,11 @@
         <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>20</v>
@@ -1244,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
@@ -1261,10 +1268,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1287,13 +1294,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1344,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
@@ -1361,10 +1368,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1387,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1444,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>72</v>
@@ -1461,10 +1468,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1487,13 +1494,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1544,7 +1551,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>72</v>
@@ -1561,10 +1568,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1587,13 +1594,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1644,7 +1651,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -1661,10 +1668,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1687,13 +1694,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1744,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -1761,10 +1768,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1787,13 +1794,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1844,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
@@ -1861,10 +1868,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1887,13 +1894,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1944,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -1961,10 +1968,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1987,13 +1994,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2044,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -2061,10 +2068,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2087,13 +2094,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2144,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -2161,10 +2168,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2187,13 +2194,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2244,7 +2251,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -2261,10 +2268,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2287,13 +2294,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2344,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
@@ -2361,10 +2368,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2387,13 +2394,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2444,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -2461,10 +2468,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2487,13 +2494,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2544,7 +2551,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
@@ -2561,10 +2568,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2587,13 +2594,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2644,7 +2651,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
@@ -2661,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2687,13 +2694,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2744,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
@@ -2761,10 +2768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2787,13 +2794,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2844,7 +2851,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
@@ -2861,10 +2868,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2887,13 +2894,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2944,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
@@ -2961,10 +2968,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -2987,13 +2994,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3044,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
@@ -3061,10 +3068,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3087,13 +3094,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3144,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>72</v>
@@ -3161,10 +3168,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3190,10 +3197,10 @@
         <v>78</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3244,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>72</v>
@@ -3261,10 +3268,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3287,13 +3294,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3344,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
@@ -3361,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3387,13 +3394,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3444,7 +3451,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
@@ -3461,10 +3468,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3487,13 +3494,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3544,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
@@ -3561,10 +3568,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3590,10 +3597,10 @@
         <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3644,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
@@ -3661,10 +3668,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3687,13 +3694,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3744,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
@@ -3761,10 +3768,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3787,13 +3794,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3844,7 +3851,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
@@ -3861,10 +3868,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3887,13 +3894,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3944,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
@@ -3961,10 +3968,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -3987,13 +3994,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4044,7 +4051,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>72</v>
@@ -4061,10 +4068,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4087,13 +4094,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4144,7 +4151,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>72</v>
@@ -4161,10 +4168,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4187,13 +4194,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4244,7 +4251,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>72</v>
@@ -4261,10 +4268,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4287,13 +4294,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4344,7 +4351,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>72</v>
@@ -4361,10 +4368,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4387,13 +4394,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4420,11 +4427,11 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -4442,7 +4449,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>72</v>
@@ -4459,10 +4466,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4485,13 +4492,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4542,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>72</v>
@@ -4559,10 +4566,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4588,10 +4595,10 @@
         <v>78</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4642,7 +4649,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>72</v>
@@ -4659,10 +4666,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4685,13 +4692,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4742,7 +4749,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>72</v>
@@ -4759,10 +4766,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4785,13 +4792,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4842,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>72</v>
@@ -4859,10 +4866,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -4888,10 +4895,10 @@
         <v>78</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -4942,7 +4949,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-TBTreatment.xlsx
+++ b/StructureDefinition-TBTreatment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
